--- a/tables/Power_app_criteria.xlsx
+++ b/tables/Power_app_criteria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-device2\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-deviceIEP\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9758642-378B-48AD-8EEA-A529AA161B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E3B260-E72A-4284-8EC8-1652B3F0FBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8925" yWindow="-16200" windowWidth="21165" windowHeight="14085" activeTab="2" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
+    <workbookView xWindow="29640" yWindow="1755" windowWidth="27960" windowHeight="11385" activeTab="5" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms_Options" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="137">
   <si>
     <t>Feature</t>
   </si>
@@ -426,16 +426,10 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Score</t>
-  </si>
-  <si>
     <t>Group Notes/Reviews</t>
   </si>
   <si>
     <t>External Reviews</t>
-  </si>
-  <si>
-    <t>Score (0-3)</t>
   </si>
   <si>
     <t>Cloud-storage</t>
@@ -678,7 +672,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,14 +710,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF202124"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -807,9 +793,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -817,7 +803,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -832,7 +818,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -847,16 +833,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -865,12 +851,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1192,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEDC525-B77D-4397-8B91-1C5526620A5B}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="105" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="105" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,7 +1191,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1227,11 +1210,8 @@
       <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1239,13 +1219,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1253,13 +1233,13 @@
         <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1267,28 +1247,28 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1296,13 +1276,13 @@
         <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1310,14 +1290,14 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:7" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1325,27 +1305,27 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1353,14 +1333,14 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1368,13 +1348,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1382,13 +1362,13 @@
         <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1396,13 +1376,13 @@
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1410,13 +1390,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1424,14 +1404,14 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1439,13 +1419,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1456,13 +1436,13 @@
         <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1476,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C0BCC4-86A1-4030-90CE-22D0CC9ADA23}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,12 +1468,11 @@
     <col min="4" max="4" width="41.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="58.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="42" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="21.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1507,31 +1486,28 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -1539,36 +1515,36 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1576,17 +1552,17 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
@@ -1594,18 +1570,17 @@
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>103</v>
-      </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -1613,17 +1588,16 @@
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -1631,13 +1605,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1645,14 +1619,13 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -1660,16 +1633,16 @@
         <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1680,10 +1653,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF5D6FA-27AF-4377-9AE3-FE0575D1CE52}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,10 +1667,9 @@
     <col min="4" max="4" width="39.140625" customWidth="1"/>
     <col min="5" max="5" width="34.140625" customWidth="1"/>
     <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1711,16 +1683,13 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
@@ -1728,19 +1697,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
@@ -1748,12 +1717,12 @@
         <v>21</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="16"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1761,27 +1730,27 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1789,26 +1758,25 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -1816,7 +1784,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1829,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FF90FC-7D54-4396-BEBF-836B30C262EA}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,11 +1809,10 @@
     <col min="2" max="2" width="33" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>48</v>
       </c>
@@ -1853,73 +1820,70 @@
         <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="12"/>
     </row>
-    <row r="3" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1930,10 +1894,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C265533-1A49-4A12-B530-D6DEC4C9BC87}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,7 +1909,7 @@
     <col min="5" max="5" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1956,64 +1920,61 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -2026,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DAF0C1-5840-4498-93BE-7596EB0B3995}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2039,10 +2000,9 @@
     <col min="3" max="3" width="28.5703125" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="46.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2050,97 +2010,90 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E9" s="19"/>
     </row>
   </sheetData>

--- a/tables/Power_app_criteria.xlsx
+++ b/tables/Power_app_criteria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-deviceIEP\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E3B260-E72A-4284-8EC8-1652B3F0FBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66102FB-8AEA-4CB4-9173-054363AD9C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29640" yWindow="1755" windowWidth="27960" windowHeight="11385" activeTab="5" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
+    <workbookView xWindow="3165" yWindow="705" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms_Options" sheetId="1" r:id="rId1"/>
@@ -643,10 +643,6 @@
     <t>Per User Premium License (non-Gov't)</t>
   </si>
   <si>
-    <t>The 'Power Apps per User Premium Plan for Government' is an app developer license which is ~ $17/month; 
-The 'Power Apps per App Plan for Government' is the end-user license which is initiated when an app is shared with a new user; this license is ~$10/month for each user</t>
-  </si>
-  <si>
     <t>$10/Active User/month</t>
   </si>
   <si>
@@ -663,6 +659,10 @@
   </si>
   <si>
     <t xml:space="preserve">Drawing-on/ Annotating photo </t>
+  </si>
+  <si>
+    <t>The Power Apps per USER Premium Plan for Government' is an app developer license which is approx $17/mo.
+The Power Apps per APP Plan for Government is the end-user license which is initiated when an app is shared with a new user. This license is approx $10/mo for each user</t>
   </si>
 </sst>
 </file>
@@ -1700,7 +1700,7 @@
         <v>69</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>113</v>
@@ -1739,13 +1739,13 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
@@ -1880,7 +1880,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>110</v>
@@ -1990,7 +1990,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,7 +2029,7 @@
         <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="1" t="s">
@@ -2046,7 +2046,7 @@
         <v>128</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>91</v>
@@ -2063,7 +2063,7 @@
         <v>129</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>89</v>
@@ -2098,6 +2098,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tables/Power_app_criteria.xlsx
+++ b/tables/Power_app_criteria.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-deviceIEP\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66102FB-8AEA-4CB4-9173-054363AD9C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1413EF5-933C-4797-AC53-086CFB2B84AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="705" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
+    <workbookView xWindow="16335" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms_Options" sheetId="1" r:id="rId1"/>
@@ -166,9 +166,6 @@
     <t>Permissions Management</t>
   </si>
   <si>
-    <t>Font adjustment/Speak-to-text</t>
-  </si>
-  <si>
     <t>Other IEP Survey needs</t>
   </si>
   <si>
@@ -652,9 +649,6 @@
     <t>Yes, but some features ("Components") of form building will not work.</t>
   </si>
   <si>
-    <t>;Power Apps has a Camera control function; for a Power App form in Canvas, multiple photos can be linked to a record without the use of a Power Automate routine. https://learn.microsoft.com/en-us/power-apps/maker/canvas-apps/controls/control-add-picture</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Power Apps has a Pen Input control that supports drawing a sketch which can be added as an attachment; but does not have the ability to annotate a picture (to our best knowledge)</t>
   </si>
   <si>
@@ -663,6 +657,12 @@
   <si>
     <t>The Power Apps per USER Premium Plan for Government' is an app developer license which is approx $17/mo.
 The Power Apps per APP Plan for Government is the end-user license which is initiated when an app is shared with a new user. This license is approx $10/mo for each user</t>
+  </si>
+  <si>
+    <t>Power Apps has a Camera control function; for a Power App form in Canvas, multiple photos can be linked to a record without the use of a Power Automate routine. https://learn.microsoft.com/en-us/power-apps/maker/canvas-apps/controls/control-add-picture</t>
+  </si>
+  <si>
+    <t>Font adjustment/ Speak-to-text</t>
   </si>
 </sst>
 </file>
@@ -1177,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEDC525-B77D-4397-8B91-1C5526620A5B}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="105" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="105" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,16 +1199,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1219,10 +1219,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1230,13 +1230,13 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1247,10 +1247,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4"/>
     </row>
@@ -1259,13 +1259,13 @@
         <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="135" x14ac:dyDescent="0.25">
@@ -1276,10 +1276,10 @@
         <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1290,10 +1290,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="13"/>
     </row>
@@ -1305,10 +1305,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1316,13 +1316,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
@@ -1333,10 +1333,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="15"/>
     </row>
@@ -1348,10 +1348,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="120" x14ac:dyDescent="0.25">
@@ -1359,90 +1359,90 @@
         <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="141.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1480,118 +1480,118 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="5"/>
@@ -1599,50 +1599,50 @@
     </row>
     <row r="8" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1656,7 +1656,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,88 +1677,88 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="16"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1766,25 +1766,25 @@
     </row>
     <row r="7" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1814,16 +1814,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1834,21 +1834,21 @@
     </row>
     <row r="3" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1858,21 +1858,21 @@
     </row>
     <row r="6" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1880,10 +1880,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1914,16 +1914,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
         <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1931,7 +1931,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="4"/>
@@ -1941,14 +1941,14 @@
         <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25">
@@ -1956,7 +1956,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="9"/>
     </row>
@@ -1965,7 +1965,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -1974,7 +1974,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1989,7 +1989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DAF0C1-5840-4498-93BE-7596EB0B3995}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2010,46 +2010,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="4" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -2074,10 +2074,10 @@
     </row>
     <row r="5" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="6" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
